--- a/pcb_fabrication/Tracker/v1.0 23.10.2021/BOM 23.10.2021 17.42.xlsx
+++ b/pcb_fabrication/Tracker/v1.0 23.10.2021/BOM 23.10.2021 17.42.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Documents\Peggy\Peggy_PCB\Peggy\Project Outputs\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jedi\Documents\Peggy\pcb_fabrication\Tracker\v1.0 23.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F65F6F-4349-4F38-AFAF-265E5C32AC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD53C54-74C6-4D02-A84D-60073C6A35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{1C7DA66E-A762-4FC2-8E3C-946701791989}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C7DA66E-A762-4FC2-8E3C-946701791989}"/>
   </bookViews>
   <sheets>
     <sheet name="Peggy 23.10.2021 17.42" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +297,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,18 +340,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -659,11 +689,15 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="16" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
   </cols>
@@ -675,7 +709,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -700,583 +734,583 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>0.12</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>0.12</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>9059897</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>1.61E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>241.5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>2970000</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>0.48</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>0.96</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>39725</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>0.37</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>0.37</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>6975</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>0.33</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>0.33</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <v>4395</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>16.91</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="9">
         <v>16.91</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>95</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>21</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>21</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>25791</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4" t="s">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>0.18</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>0.18</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <v>257888</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>0.96</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>0.96</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="5">
         <v>1151</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>0.1</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="5">
         <v>0.1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="5">
         <v>17706</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>0.13</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>0.13</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>1455</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>2193118</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>0.1</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
         <v>0.1</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="5">
         <v>459975</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>0.1</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="5">
         <v>0.1</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="5">
         <v>4244</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4" t="s">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4" t="s">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>0.86</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="5">
         <v>0.86</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="5">
         <v>13086</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4" t="s">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>1.69</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5">
         <v>3.38</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="5">
         <v>8310</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="6" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="39" orientation="landscape" blackAndWhite="1" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="39" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>